--- a/Resource/excel/3000-英雄-英雄配置.xlsx
+++ b/Resource/excel/3000-英雄-英雄配置.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet name="heroname" sheetId="2" r:id="rId1"/>
+    <sheet name="hero" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -67,22 +67,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,6 +105,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -104,69 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,39 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +245,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +450,26 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,21 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -517,22 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,152 +556,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,9 +733,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,7 +1167,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1213,65 +1210,58 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:9">
+    <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="7">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:2">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:2">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:2">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:2">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Resource/excel/3000-英雄-英雄配置.xlsx
+++ b/Resource/excel/3000-英雄-英雄配置.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FighterServer\Face\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1DF675-55B6-4653-9E21-59545FA2C896}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225"/>
   </bookViews>
   <sheets>
     <sheet name="hero" sheetId="2" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>#hero</t>
   </si>
@@ -38,9 +37,6 @@
   </si>
   <si>
     <t>Name(string)</t>
-  </si>
-  <si>
-    <t>乌瑞恩</t>
   </si>
   <si>
     <t>初始</t>
@@ -58,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +216,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -569,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -644,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -652,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -660,16 +656,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
